--- a/CC_Valen_FI0123_FF0724_v1.xlsx
+++ b/CC_Valen_FI0123_FF0724_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80A93A4-E25B-41FB-8789-3F3A5D6E385E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453C03BF-D5E3-4B66-8373-538343342DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>date</t>
   </si>
   <si>
     <t>pred</t>
+  </si>
+  <si>
+    <t>threshold</t>
   </si>
 </sst>
 </file>
@@ -33,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -89,7 +92,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,32 +395,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B375"/>
+  <dimension ref="A1:C375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44957.375008657407</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44958.875</v>
       </c>
@@ -425,7 +436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44959.875</v>
       </c>
@@ -433,7 +444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44960.875</v>
       </c>
@@ -441,7 +452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44963.875</v>
       </c>
@@ -449,7 +460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44964.875</v>
       </c>
@@ -457,7 +468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44965.875</v>
       </c>
@@ -465,7 +476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44966.875</v>
       </c>
@@ -473,7 +484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44967.875</v>
       </c>
@@ -481,7 +492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44970.875</v>
       </c>
@@ -489,7 +500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44971.875</v>
       </c>
@@ -497,7 +508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44972.875</v>
       </c>
@@ -505,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44973.875</v>
       </c>
@@ -513,7 +524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44974.875</v>
       </c>
@@ -521,7 +532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44978.875</v>
       </c>
